--- a/__repository/template/temp_atf.xlsx
+++ b/__repository/template/temp_atf.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TEMPLATE UPLOAD ATF</t>
   </si>
@@ -84,13 +84,22 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>2GNEW0001</t>
+  </si>
+  <si>
+    <t>2GNEW0002</t>
+  </si>
+  <si>
+    <t>2GNEW0003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +148,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -173,19 +187,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -196,11 +205,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:S1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,78 +516,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="7">
+        <v>42653</v>
+      </c>
+      <c r="J6" s="7">
+        <v>42654</v>
+      </c>
+      <c r="K6" s="7">
+        <v>42655</v>
+      </c>
+      <c r="L6" s="7">
+        <v>42656</v>
+      </c>
+      <c r="M6" s="7">
+        <v>42657</v>
+      </c>
+      <c r="N6" s="7">
+        <v>42658</v>
+      </c>
+      <c r="O6" s="7">
+        <v>42659</v>
+      </c>
+      <c r="P6" s="7">
+        <v>42660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="7">
+        <v>42654</v>
+      </c>
+      <c r="J7" s="7">
+        <v>42655</v>
+      </c>
+      <c r="K7" s="7">
+        <v>42656</v>
+      </c>
+      <c r="L7" s="7">
+        <v>42657</v>
+      </c>
+      <c r="M7" s="7">
+        <v>42658</v>
+      </c>
+      <c r="N7" s="7">
+        <v>42659</v>
+      </c>
+      <c r="O7" s="7">
+        <v>42660</v>
+      </c>
+      <c r="P7" s="7">
+        <v>42661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="7">
+        <v>42655</v>
+      </c>
+      <c r="J8" s="7">
+        <v>42656</v>
+      </c>
+      <c r="K8" s="7">
+        <v>42657</v>
+      </c>
+      <c r="L8" s="7">
+        <v>42658</v>
+      </c>
+      <c r="M8" s="7">
+        <v>42659</v>
+      </c>
+      <c r="N8" s="7">
+        <v>42660</v>
+      </c>
+      <c r="O8" s="7">
+        <v>42661</v>
+      </c>
+      <c r="P8" s="7">
+        <v>42662</v>
       </c>
     </row>
   </sheetData>
